--- a/A549_CA01.xlsx
+++ b/A549_CA01.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Li\Documents\BIMM143\Project_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{58A4975C-2C94-4481-8268-0EF810AC0534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF321474-FEDA-4907-9570-46603AECCC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A549_CA01" sheetId="1" r:id="rId1"/>
@@ -2080,7 +2080,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2558,10 +2558,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2916,17 +2917,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K674"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2961,7 +2965,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>282617</v>
       </c>
       <c r="B2">
@@ -2996,7 +3000,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>219537</v>
       </c>
       <c r="B3">
@@ -3031,7 +3035,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>64108</v>
       </c>
       <c r="B4">
@@ -3066,7 +3070,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>3627</v>
       </c>
       <c r="B5">
@@ -3101,7 +3105,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>100131733</v>
       </c>
       <c r="B6">
@@ -3136,7 +3140,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>114769</v>
       </c>
       <c r="B7">
@@ -3171,7 +3175,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>54979</v>
       </c>
       <c r="B8">
@@ -3206,7 +3210,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>400759</v>
       </c>
       <c r="B9">
@@ -3241,7 +3245,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>6373</v>
       </c>
       <c r="B10">
@@ -3276,7 +3280,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>400696</v>
       </c>
       <c r="B11">
@@ -3311,7 +3315,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>81030</v>
       </c>
       <c r="B12">
@@ -3346,7 +3350,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>54739</v>
       </c>
       <c r="B13">
@@ -3381,7 +3385,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>397</v>
       </c>
       <c r="B14">
@@ -3416,7 +3420,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>4939</v>
       </c>
       <c r="B15">
@@ -3451,7 +3455,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>91543</v>
       </c>
       <c r="B16">
@@ -3486,7 +3490,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>22917</v>
       </c>
       <c r="B17">
@@ -3521,7 +3525,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="3">
         <v>285180</v>
       </c>
       <c r="B18">
@@ -3556,7 +3560,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="3">
         <v>5655</v>
       </c>
       <c r="B19">
@@ -3591,7 +3595,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="3">
         <v>2282</v>
       </c>
       <c r="B20">
@@ -3626,7 +3630,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="3">
         <v>51554</v>
       </c>
       <c r="B21">
@@ -3661,7 +3665,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="3">
         <v>4322</v>
       </c>
       <c r="B22">
@@ -3696,7 +3700,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="3">
         <v>3434</v>
       </c>
       <c r="B23">
@@ -3731,7 +3735,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="3">
         <v>5739</v>
       </c>
       <c r="B24">
@@ -3766,7 +3770,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="3">
         <v>8641</v>
       </c>
       <c r="B25">
@@ -3801,7 +3805,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="3">
         <v>84866</v>
       </c>
       <c r="B26">
@@ -3836,7 +3840,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="3">
         <v>3433</v>
       </c>
       <c r="B27">
@@ -3871,7 +3875,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="3">
         <v>64127</v>
       </c>
       <c r="B28">
@@ -3906,7 +3910,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="3">
         <v>113730</v>
       </c>
       <c r="B29">
@@ -3941,7 +3945,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="3">
         <v>4599</v>
       </c>
       <c r="B30">
@@ -3976,7 +3980,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="3">
         <v>7097</v>
       </c>
       <c r="B31">
@@ -4011,7 +4015,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="3">
         <v>126070</v>
       </c>
       <c r="B32">
@@ -4046,7 +4050,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="3">
         <v>387700</v>
       </c>
       <c r="B33">
@@ -4081,7 +4085,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="3">
         <v>6869</v>
       </c>
       <c r="B34">
@@ -4116,7 +4120,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="3">
         <v>51296</v>
       </c>
       <c r="B35">
@@ -4151,7 +4155,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="3">
         <v>4600</v>
       </c>
       <c r="B36">
@@ -4186,7 +4190,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="3">
         <v>4846</v>
       </c>
       <c r="B37">
@@ -4221,7 +4225,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="3">
         <v>56884</v>
       </c>
       <c r="B38">
@@ -4256,7 +4260,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="3">
         <v>27074</v>
       </c>
       <c r="B39">
@@ -4291,7 +4295,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="3">
         <v>116071</v>
       </c>
       <c r="B40">
@@ -4326,7 +4330,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="A41" s="3">
         <v>721</v>
       </c>
       <c r="B41">
@@ -4361,7 +4365,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="3">
         <v>8638</v>
       </c>
       <c r="B42">
@@ -4396,7 +4400,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="A43" s="3">
         <v>3437</v>
       </c>
       <c r="B43">
@@ -4431,7 +4435,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A44" s="3">
         <v>10561</v>
       </c>
       <c r="B44">
@@ -4466,7 +4470,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="3">
         <v>64135</v>
       </c>
       <c r="B45">
@@ -4501,7 +4505,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="A46" s="3">
         <v>10964</v>
       </c>
       <c r="B46">
@@ -4536,7 +4540,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="A47" s="3">
         <v>10537</v>
       </c>
       <c r="B47">
@@ -4571,7 +4575,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="A48" s="3">
         <v>129607</v>
       </c>
       <c r="B48">
@@ -4606,7 +4610,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="3">
         <v>10346</v>
       </c>
       <c r="B49">
@@ -4641,7 +4645,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="3">
         <v>8519</v>
       </c>
       <c r="B50">
@@ -4676,7 +4680,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="A51" s="3">
         <v>3456</v>
       </c>
       <c r="B51">
@@ -4711,7 +4715,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="A52" s="3">
         <v>282616</v>
       </c>
       <c r="B52">
@@ -4746,7 +4750,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="A53" s="3">
         <v>80833</v>
       </c>
       <c r="B53">
@@ -4781,7 +4785,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="A54" s="3">
         <v>684</v>
       </c>
       <c r="B54">
@@ -4816,7 +4820,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="A55" s="3">
         <v>219285</v>
       </c>
       <c r="B55">
@@ -4851,7 +4855,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="A56" s="3">
         <v>9636</v>
       </c>
       <c r="B56">
@@ -4886,7 +4890,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="A57" s="3">
         <v>29126</v>
       </c>
       <c r="B57">
@@ -4921,7 +4925,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="A58" s="3">
         <v>3429</v>
       </c>
       <c r="B58">
@@ -4956,7 +4960,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="A59" s="3">
         <v>282618</v>
       </c>
       <c r="B59">
@@ -4991,7 +4995,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="A60" s="3">
         <v>388646</v>
       </c>
       <c r="B60">
@@ -5026,7 +5030,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="A61" s="3">
         <v>25840</v>
       </c>
       <c r="B61">
@@ -5061,7 +5065,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="A62" s="3">
         <v>51513</v>
       </c>
       <c r="B62">
@@ -5096,7 +5100,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="A63" s="3">
         <v>146754</v>
       </c>
       <c r="B63">
@@ -5131,7 +5135,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="A64" s="3">
         <v>2537</v>
       </c>
       <c r="B64">
@@ -5166,7 +5170,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="A65" s="3">
         <v>4005</v>
       </c>
       <c r="B65">
@@ -5201,7 +5205,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="A66" s="3">
         <v>3665</v>
       </c>
       <c r="B66">
@@ -5236,7 +5240,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="A67" s="3">
         <v>84875</v>
       </c>
       <c r="B67">
@@ -5271,7 +5275,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="A68" s="3">
         <v>100507463</v>
       </c>
       <c r="B68">
@@ -5306,7 +5310,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="A69" s="3">
         <v>152926</v>
       </c>
       <c r="B69">
@@ -5341,7 +5345,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="A70" s="3">
         <v>8743</v>
       </c>
       <c r="B70">
@@ -5376,7 +5380,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71">
+      <c r="A71" s="3">
         <v>2633</v>
       </c>
       <c r="B71">
@@ -5411,7 +5415,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="A72" s="3">
         <v>81893</v>
       </c>
       <c r="B72">
@@ -5446,7 +5450,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="A73" s="3">
         <v>51365</v>
       </c>
       <c r="B73">
@@ -5481,7 +5485,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74">
+      <c r="A74" s="3">
         <v>84941</v>
       </c>
       <c r="B74">
@@ -5516,7 +5520,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="A75" s="3">
         <v>7098</v>
       </c>
       <c r="B75">
@@ -5551,7 +5555,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76">
+      <c r="A76" s="3">
         <v>115361</v>
       </c>
       <c r="B76">
@@ -5586,7 +5590,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77">
+      <c r="A77" s="3">
         <v>5920</v>
       </c>
       <c r="B77">
@@ -5621,7 +5625,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78">
+      <c r="A78" s="3">
         <v>54809</v>
       </c>
       <c r="B78">
@@ -5656,7 +5660,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79">
+      <c r="A79" s="3">
         <v>23586</v>
       </c>
       <c r="B79">
@@ -5691,7 +5695,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="A80" s="3">
         <v>634</v>
       </c>
       <c r="B80">
@@ -5726,7 +5730,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="A81" s="3">
         <v>100144602</v>
       </c>
       <c r="B81">
@@ -5761,7 +5765,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82">
+      <c r="A82" s="3">
         <v>85441</v>
       </c>
       <c r="B82">
@@ -5796,7 +5800,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="A83" s="3">
         <v>7318</v>
       </c>
       <c r="B83">
@@ -5831,7 +5835,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="A84" s="3">
         <v>3112</v>
       </c>
       <c r="B84">
@@ -5866,7 +5870,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="A85" s="3">
         <v>140711</v>
       </c>
       <c r="B85">
@@ -5901,7 +5905,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86">
+      <c r="A86" s="3">
         <v>9473</v>
       </c>
       <c r="B86">
@@ -5936,7 +5940,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87">
+      <c r="A87" s="3">
         <v>57664</v>
       </c>
       <c r="B87">
@@ -5971,7 +5975,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88">
+      <c r="A88" s="3">
         <v>60468</v>
       </c>
       <c r="B88">
@@ -6006,7 +6010,7 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89">
+      <c r="A89" s="3">
         <v>197135</v>
       </c>
       <c r="B89">
@@ -6041,7 +6045,7 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90">
+      <c r="A90" s="3">
         <v>834</v>
       </c>
       <c r="B90">
@@ -6076,7 +6080,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91">
+      <c r="A91" s="3">
         <v>9881</v>
       </c>
       <c r="B91">
@@ -6111,7 +6115,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92">
+      <c r="A92" s="3">
         <v>79025</v>
       </c>
       <c r="B92">
@@ -6146,7 +6150,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93">
+      <c r="A93" s="3">
         <v>84166</v>
       </c>
       <c r="B93">
@@ -6181,7 +6185,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94">
+      <c r="A94" s="3">
         <v>6276</v>
       </c>
       <c r="B94">
@@ -6216,7 +6220,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95">
+      <c r="A95" s="3">
         <v>91703</v>
       </c>
       <c r="B95">
@@ -6251,7 +6255,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96">
+      <c r="A96" s="3">
         <v>725</v>
       </c>
       <c r="B96">
@@ -6286,7 +6290,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97">
+      <c r="A97" s="3">
         <v>80830</v>
       </c>
       <c r="B97">
@@ -6321,7 +6325,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98">
+      <c r="A98" s="3">
         <v>10673</v>
       </c>
       <c r="B98">
@@ -6356,7 +6360,7 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99">
+      <c r="A99" s="3">
         <v>11274</v>
       </c>
       <c r="B99">
@@ -6391,7 +6395,7 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100">
+      <c r="A100" s="3">
         <v>79949</v>
       </c>
       <c r="B100">
@@ -6426,7 +6430,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101">
+      <c r="A101" s="3">
         <v>8651</v>
       </c>
       <c r="B101">
@@ -6461,7 +6465,7 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102">
+      <c r="A102" s="3">
         <v>26157</v>
       </c>
       <c r="B102">
@@ -6496,7 +6500,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103">
+      <c r="A103" s="3">
         <v>79132</v>
       </c>
       <c r="B103">
@@ -6531,7 +6535,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104">
+      <c r="A104" s="3">
         <v>284697</v>
       </c>
       <c r="B104">
@@ -6566,7 +6570,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105">
+      <c r="A105" s="3">
         <v>54866</v>
       </c>
       <c r="B105">
@@ -6601,7 +6605,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106">
+      <c r="A106" s="3">
         <v>1573</v>
       </c>
       <c r="B106">
@@ -6636,7 +6640,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107">
+      <c r="A107" s="3">
         <v>283385</v>
       </c>
       <c r="B107">
@@ -6671,7 +6675,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108">
+      <c r="A108" s="3">
         <v>3431</v>
       </c>
       <c r="B108">
@@ -6706,7 +6710,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109">
+      <c r="A109" s="3">
         <v>115362</v>
       </c>
       <c r="B109">
@@ -6741,7 +6745,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110">
+      <c r="A110" s="3">
         <v>3620</v>
       </c>
       <c r="B110">
@@ -6776,7 +6780,7 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111">
+      <c r="A111" s="3">
         <v>11309</v>
       </c>
       <c r="B111">
@@ -6811,7 +6815,7 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112">
+      <c r="A112" s="3">
         <v>3773</v>
       </c>
       <c r="B112">
@@ -6846,7 +6850,7 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113">
+      <c r="A113" s="3">
         <v>246754</v>
       </c>
       <c r="B113">
@@ -6881,7 +6885,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114">
+      <c r="A114" s="3">
         <v>2690</v>
       </c>
       <c r="B114">
@@ -6916,7 +6920,7 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115">
+      <c r="A115" s="3">
         <v>150221</v>
       </c>
       <c r="B115">
@@ -6951,7 +6955,7 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116">
+      <c r="A116" s="3">
         <v>55601</v>
       </c>
       <c r="B116">
@@ -6986,7 +6990,7 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117">
+      <c r="A117" s="3">
         <v>55008</v>
       </c>
       <c r="B117">
@@ -7021,7 +7025,7 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118">
+      <c r="A118" s="3">
         <v>83666</v>
       </c>
       <c r="B118">
@@ -7056,7 +7060,7 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119">
+      <c r="A119" s="3">
         <v>3134</v>
       </c>
       <c r="B119">
@@ -7091,7 +7095,7 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120">
+      <c r="A120" s="3">
         <v>619373</v>
       </c>
       <c r="B120">
@@ -7126,7 +7130,7 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121">
+      <c r="A121" s="3">
         <v>4261</v>
       </c>
       <c r="B121">
@@ -7161,7 +7165,7 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122">
+      <c r="A122" s="3">
         <v>710</v>
       </c>
       <c r="B122">
@@ -7196,7 +7200,7 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123">
+      <c r="A123" s="3">
         <v>151636</v>
       </c>
       <c r="B123">
@@ -7231,7 +7235,7 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124">
+      <c r="A124" s="3">
         <v>51191</v>
       </c>
       <c r="B124">
@@ -7266,7 +7270,7 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125">
+      <c r="A125" s="3">
         <v>4938</v>
       </c>
       <c r="B125">
@@ -7301,7 +7305,7 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126">
+      <c r="A126" s="3">
         <v>283849</v>
       </c>
       <c r="B126">
@@ -7336,7 +7340,7 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127">
+      <c r="A127" s="3">
         <v>3659</v>
       </c>
       <c r="B127">
@@ -7371,7 +7375,7 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128">
+      <c r="A128" s="3">
         <v>23109</v>
       </c>
       <c r="B128">
@@ -7406,7 +7410,7 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129">
+      <c r="A129" s="3">
         <v>51561</v>
       </c>
       <c r="B129">
@@ -7441,7 +7445,7 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130">
+      <c r="A130" s="3">
         <v>866</v>
       </c>
       <c r="B130">
@@ -7476,7 +7480,7 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131">
+      <c r="A131" s="3">
         <v>259307</v>
       </c>
       <c r="B131">
@@ -7511,7 +7515,7 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132">
+      <c r="A132" s="3">
         <v>5698</v>
       </c>
       <c r="B132">
@@ -7546,7 +7550,7 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133">
+      <c r="A133" s="3">
         <v>7903</v>
       </c>
       <c r="B133">
@@ -7581,7 +7585,7 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134">
+      <c r="A134" s="3">
         <v>3428</v>
       </c>
       <c r="B134">
@@ -7616,7 +7620,7 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135">
+      <c r="A135" s="3">
         <v>3823</v>
       </c>
       <c r="B135">
@@ -7651,7 +7655,7 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136">
+      <c r="A136" s="3">
         <v>100287284</v>
       </c>
       <c r="B136">
@@ -7686,7 +7690,7 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137">
+      <c r="A137" s="3">
         <v>27439</v>
       </c>
       <c r="B137">
@@ -7721,7 +7725,7 @@
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138">
+      <c r="A138" s="3">
         <v>54625</v>
       </c>
       <c r="B138">
@@ -7756,7 +7760,7 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139">
+      <c r="A139" s="3">
         <v>161145</v>
       </c>
       <c r="B139">
@@ -7791,7 +7795,7 @@
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140">
+      <c r="A140" s="3">
         <v>5104</v>
       </c>
       <c r="B140">
@@ -7826,7 +7830,7 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141">
+      <c r="A141" s="3">
         <v>3430</v>
       </c>
       <c r="B141">
@@ -7861,7 +7865,7 @@
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142">
+      <c r="A142" s="3">
         <v>2635</v>
       </c>
       <c r="B142">
@@ -7896,7 +7900,7 @@
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143">
+      <c r="A143" s="3">
         <v>4585</v>
       </c>
       <c r="B143">
@@ -7931,7 +7935,7 @@
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144">
+      <c r="A144" s="3">
         <v>4940</v>
       </c>
       <c r="B144">
@@ -7966,7 +7970,7 @@
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A145">
+      <c r="A145" s="3">
         <v>54847</v>
       </c>
       <c r="B145">
@@ -8001,7 +8005,7 @@
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A146">
+      <c r="A146" s="3">
         <v>645158</v>
       </c>
       <c r="B146">
@@ -8036,7 +8040,7 @@
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A147">
+      <c r="A147" s="3">
         <v>55337</v>
       </c>
       <c r="B147">
@@ -8071,7 +8075,7 @@
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A148">
+      <c r="A148" s="3">
         <v>91351</v>
       </c>
       <c r="B148">
@@ -8106,7 +8110,7 @@
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A149">
+      <c r="A149" s="3">
         <v>6773</v>
       </c>
       <c r="B149">
@@ -8141,7 +8145,7 @@
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A150">
+      <c r="A150" s="3">
         <v>23414</v>
       </c>
       <c r="B150">
@@ -8176,7 +8180,7 @@
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A151">
+      <c r="A151" s="3">
         <v>28514</v>
       </c>
       <c r="B151">
@@ -8211,7 +8215,7 @@
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152">
+      <c r="A152" s="3">
         <v>9830</v>
       </c>
       <c r="B152">
@@ -8246,7 +8250,7 @@
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A153">
+      <c r="A153" s="3">
         <v>91461</v>
       </c>
       <c r="B153">
@@ -8281,7 +8285,7 @@
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A154">
+      <c r="A154" s="3">
         <v>5979</v>
       </c>
       <c r="B154">
@@ -8316,7 +8320,7 @@
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A155">
+      <c r="A155" s="3">
         <v>26011</v>
       </c>
       <c r="B155">
@@ -8351,7 +8355,7 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A156">
+      <c r="A156" s="3">
         <v>5371</v>
       </c>
       <c r="B156">
@@ -8386,7 +8390,7 @@
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A157">
+      <c r="A157" s="3">
         <v>64761</v>
       </c>
       <c r="B157">
@@ -8421,7 +8425,7 @@
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A158">
+      <c r="A158" s="3">
         <v>57169</v>
       </c>
       <c r="B158">
@@ -8456,7 +8460,7 @@
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A159">
+      <c r="A159" s="3">
         <v>222171</v>
       </c>
       <c r="B159">
@@ -8491,7 +8495,7 @@
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A160">
+      <c r="A160" s="3">
         <v>431707</v>
       </c>
       <c r="B160">
@@ -8526,7 +8530,7 @@
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A161">
+      <c r="A161" s="3">
         <v>79741</v>
       </c>
       <c r="B161">
@@ -8561,7 +8565,7 @@
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A162">
+      <c r="A162" s="3">
         <v>7706</v>
       </c>
       <c r="B162">
@@ -8596,7 +8600,7 @@
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A163">
+      <c r="A163" s="3">
         <v>6890</v>
       </c>
       <c r="B163">
@@ -8631,7 +8635,7 @@
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A164">
+      <c r="A164" s="3">
         <v>24138</v>
       </c>
       <c r="B164">
@@ -8666,7 +8670,7 @@
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A165">
+      <c r="A165" s="3">
         <v>654346</v>
       </c>
       <c r="B165">
@@ -8701,7 +8705,7 @@
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A166">
+      <c r="A166" s="3">
         <v>348738</v>
       </c>
       <c r="B166">
@@ -8736,7 +8740,7 @@
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A167">
+      <c r="A167" s="3">
         <v>5359</v>
       </c>
       <c r="B167">
@@ -8771,7 +8775,7 @@
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A168">
+      <c r="A168" s="3">
         <v>51251</v>
       </c>
       <c r="B168">
@@ -8806,7 +8810,7 @@
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A169">
+      <c r="A169" s="3">
         <v>5696</v>
       </c>
       <c r="B169">
@@ -8841,7 +8845,7 @@
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A170">
+      <c r="A170" s="3">
         <v>6352</v>
       </c>
       <c r="B170">
@@ -8876,7 +8880,7 @@
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A171">
+      <c r="A171" s="3">
         <v>6737</v>
       </c>
       <c r="B171">
@@ -8911,7 +8915,7 @@
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172">
+      <c r="A172" s="3">
         <v>55335</v>
       </c>
       <c r="B172">
@@ -8946,7 +8950,7 @@
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A173">
+      <c r="A173" s="3">
         <v>166824</v>
       </c>
       <c r="B173">
@@ -8981,7 +8985,7 @@
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A174">
+      <c r="A174" s="3">
         <v>933</v>
       </c>
       <c r="B174">
@@ -9016,7 +9020,7 @@
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A175">
+      <c r="A175" s="3">
         <v>3669</v>
       </c>
       <c r="B175">
@@ -9051,7 +9055,7 @@
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A176">
+      <c r="A176" s="3">
         <v>94</v>
       </c>
       <c r="B176">
@@ -9086,7 +9090,7 @@
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A177">
+      <c r="A177" s="3">
         <v>25939</v>
       </c>
       <c r="B177">
@@ -9121,7 +9125,7 @@
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A178">
+      <c r="A178" s="3">
         <v>136227</v>
       </c>
       <c r="B178">
@@ -9156,7 +9160,7 @@
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A179">
+      <c r="A179" s="3">
         <v>5304</v>
       </c>
       <c r="B179">
@@ -9191,7 +9195,7 @@
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A180">
+      <c r="A180" s="3">
         <v>6772</v>
       </c>
       <c r="B180">
@@ -9226,7 +9230,7 @@
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A181">
+      <c r="A181" s="3">
         <v>161253</v>
       </c>
       <c r="B181">
@@ -9261,7 +9265,7 @@
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A182">
+      <c r="A182" s="3">
         <v>1117</v>
       </c>
       <c r="B182">
@@ -9296,7 +9300,7 @@
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A183">
+      <c r="A183" s="3">
         <v>117153</v>
       </c>
       <c r="B183">
@@ -9331,7 +9335,7 @@
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A184">
+      <c r="A184" s="3">
         <v>10410</v>
       </c>
       <c r="B184">
@@ -9366,7 +9370,7 @@
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A185">
+      <c r="A185" s="3">
         <v>441108</v>
       </c>
       <c r="B185">
@@ -9401,7 +9405,7 @@
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A186">
+      <c r="A186" s="3">
         <v>64167</v>
       </c>
       <c r="B186">
@@ -9436,7 +9440,7 @@
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A187">
+      <c r="A187" s="3">
         <v>9985</v>
       </c>
       <c r="B187">
@@ -9471,7 +9475,7 @@
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A188">
+      <c r="A188" s="3">
         <v>100505812</v>
       </c>
       <c r="B188">
@@ -9506,7 +9510,7 @@
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A189">
+      <c r="A189" s="3">
         <v>629</v>
       </c>
       <c r="B189">
@@ -9541,7 +9545,7 @@
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A190">
+      <c r="A190" s="3">
         <v>9246</v>
       </c>
       <c r="B190">
@@ -9576,7 +9580,7 @@
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A191">
+      <c r="A191" s="3">
         <v>6689</v>
       </c>
       <c r="B191">
@@ -9611,7 +9615,7 @@
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A192">
+      <c r="A192" s="3">
         <v>4133</v>
       </c>
       <c r="B192">
@@ -9646,7 +9650,7 @@
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A193">
+      <c r="A193" s="3">
         <v>3601</v>
       </c>
       <c r="B193">
@@ -9681,7 +9685,7 @@
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A194">
+      <c r="A194" s="3">
         <v>55603</v>
       </c>
       <c r="B194">
@@ -9716,7 +9720,7 @@
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A195">
+      <c r="A195" s="3">
         <v>6678</v>
       </c>
       <c r="B195">
@@ -9751,7 +9755,7 @@
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A196">
+      <c r="A196" s="3">
         <v>201229</v>
       </c>
       <c r="B196">
@@ -9786,7 +9790,7 @@
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A197">
+      <c r="A197" s="3">
         <v>9472</v>
       </c>
       <c r="B197">
@@ -9821,7 +9825,7 @@
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A198">
+      <c r="A198" s="3">
         <v>8436</v>
       </c>
       <c r="B198">
@@ -9856,7 +9860,7 @@
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A199">
+      <c r="A199" s="3">
         <v>11277</v>
       </c>
       <c r="B199">
@@ -9891,7 +9895,7 @@
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A200">
+      <c r="A200" s="3">
         <v>722</v>
       </c>
       <c r="B200">
@@ -9926,7 +9930,7 @@
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A201">
+      <c r="A201" s="3">
         <v>100294362</v>
       </c>
       <c r="B201">
@@ -9961,7 +9965,7 @@
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A202">
+      <c r="A202" s="3">
         <v>10379</v>
       </c>
       <c r="B202">
@@ -9996,7 +10000,7 @@
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A203">
+      <c r="A203" s="3">
         <v>100288432</v>
       </c>
       <c r="B203">
@@ -10031,7 +10035,7 @@
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A204">
+      <c r="A204" s="3">
         <v>3851</v>
       </c>
       <c r="B204">
@@ -10066,7 +10070,7 @@
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A205">
+      <c r="A205" s="3">
         <v>353345</v>
       </c>
       <c r="B205">
@@ -10101,7 +10105,7 @@
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A206">
+      <c r="A206" s="3">
         <v>152742</v>
       </c>
       <c r="B206">
@@ -10136,7 +10140,7 @@
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A207">
+      <c r="A207" s="3">
         <v>23424</v>
       </c>
       <c r="B207">
@@ -10171,7 +10175,7 @@
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A208">
+      <c r="A208" s="3">
         <v>1958</v>
       </c>
       <c r="B208">
@@ -10206,7 +10210,7 @@
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A209">
+      <c r="A209" s="3">
         <v>1890</v>
       </c>
       <c r="B209">
@@ -10241,7 +10245,7 @@
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A210">
+      <c r="A210" s="3">
         <v>56109</v>
       </c>
       <c r="B210">
@@ -10276,7 +10280,7 @@
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A211">
+      <c r="A211" s="3">
         <v>2766</v>
       </c>
       <c r="B211">
@@ -10311,7 +10315,7 @@
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A212">
+      <c r="A212" s="3">
         <v>93010</v>
       </c>
       <c r="B212">
@@ -10346,7 +10350,7 @@
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A213">
+      <c r="A213" s="3">
         <v>398</v>
       </c>
       <c r="B213">
@@ -10381,7 +10385,7 @@
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A214">
+      <c r="A214" s="3">
         <v>87178</v>
       </c>
       <c r="B214">
@@ -10416,7 +10420,7 @@
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A215">
+      <c r="A215" s="3">
         <v>6891</v>
       </c>
       <c r="B215">
@@ -10451,7 +10455,7 @@
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A216">
+      <c r="A216" s="3">
         <v>10475</v>
       </c>
       <c r="B216">
@@ -10486,7 +10490,7 @@
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A217">
+      <c r="A217" s="3">
         <v>9056</v>
       </c>
       <c r="B217">
@@ -10521,7 +10525,7 @@
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A218">
+      <c r="A218" s="3">
         <v>10252</v>
       </c>
       <c r="B218">
@@ -10556,7 +10560,7 @@
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A219">
+      <c r="A219" s="3">
         <v>3757</v>
       </c>
       <c r="B219">
@@ -10591,7 +10595,7 @@
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A220">
+      <c r="A220" s="3">
         <v>685</v>
       </c>
       <c r="B220">
@@ -10626,7 +10630,7 @@
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A221">
+      <c r="A221" s="3">
         <v>6424</v>
       </c>
       <c r="B221">
@@ -10661,7 +10665,7 @@
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A222">
+      <c r="A222" s="3">
         <v>284076</v>
       </c>
       <c r="B222">
@@ -10696,7 +10700,7 @@
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A223">
+      <c r="A223" s="3">
         <v>152831</v>
       </c>
       <c r="B223">
@@ -10731,7 +10735,7 @@
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A224">
+      <c r="A224" s="3">
         <v>3592</v>
       </c>
       <c r="B224">
@@ -10766,7 +10770,7 @@
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A225">
+      <c r="A225" s="3">
         <v>197257</v>
       </c>
       <c r="B225">
@@ -10801,7 +10805,7 @@
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A226">
+      <c r="A226" s="3">
         <v>4615</v>
       </c>
       <c r="B226">
@@ -10836,7 +10840,7 @@
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A227">
+      <c r="A227" s="3">
         <v>56243</v>
       </c>
       <c r="B227">
@@ -10871,7 +10875,7 @@
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A228">
+      <c r="A228" s="3">
         <v>5837</v>
       </c>
       <c r="B228">
@@ -10906,7 +10910,7 @@
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A229">
+      <c r="A229" s="3">
         <v>467</v>
       </c>
       <c r="B229">
@@ -10941,7 +10945,7 @@
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A230">
+      <c r="A230" s="3">
         <v>23780</v>
       </c>
       <c r="B230">
@@ -10976,7 +10980,7 @@
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A231">
+      <c r="A231" s="3">
         <v>135112</v>
       </c>
       <c r="B231">
@@ -11011,7 +11015,7 @@
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A232">
+      <c r="A232" s="3">
         <v>971</v>
       </c>
       <c r="B232">
@@ -11046,7 +11050,7 @@
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A233">
+      <c r="A233" s="3">
         <v>1014</v>
       </c>
       <c r="B233">
@@ -11081,7 +11085,7 @@
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A234">
+      <c r="A234" s="3">
         <v>26154</v>
       </c>
       <c r="B234">
@@ -11116,7 +11120,7 @@
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A235">
+      <c r="A235" s="3">
         <v>6289</v>
       </c>
       <c r="B235">
@@ -11151,7 +11155,7 @@
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A236">
+      <c r="A236" s="3">
         <v>53844</v>
       </c>
       <c r="B236">
@@ -11186,7 +11190,7 @@
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A237">
+      <c r="A237" s="3">
         <v>2627</v>
       </c>
       <c r="B237">
@@ -11221,7 +11225,7 @@
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A238">
+      <c r="A238" s="3">
         <v>3822</v>
       </c>
       <c r="B238">
@@ -11256,7 +11260,7 @@
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A239">
+      <c r="A239" s="3">
         <v>3965</v>
       </c>
       <c r="B239">
@@ -11291,7 +11295,7 @@
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A240">
+      <c r="A240" s="3">
         <v>54550</v>
       </c>
       <c r="B240">
@@ -11326,7 +11330,7 @@
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A241">
+      <c r="A241" s="3">
         <v>3106</v>
       </c>
       <c r="B241">
@@ -11361,7 +11365,7 @@
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A242">
+      <c r="A242" s="3">
         <v>4922</v>
       </c>
       <c r="B242">
@@ -11396,7 +11400,7 @@
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A243">
+      <c r="A243" s="3">
         <v>218</v>
       </c>
       <c r="B243">
@@ -11431,7 +11435,7 @@
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A244">
+      <c r="A244" s="3">
         <v>6029</v>
       </c>
       <c r="B244">
@@ -11466,7 +11470,7 @@
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A245">
+      <c r="A245" s="3">
         <v>59352</v>
       </c>
       <c r="B245">
@@ -11501,7 +11505,7 @@
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A246">
+      <c r="A246" s="3">
         <v>26471</v>
       </c>
       <c r="B246">
@@ -11536,7 +11540,7 @@
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A247">
+      <c r="A247" s="3">
         <v>51301</v>
       </c>
       <c r="B247">
@@ -11571,7 +11575,7 @@
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A248">
+      <c r="A248" s="3">
         <v>240</v>
       </c>
       <c r="B248">
@@ -11606,7 +11610,7 @@
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A249">
+      <c r="A249" s="3">
         <v>7133</v>
       </c>
       <c r="B249">
@@ -11641,7 +11645,7 @@
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A250">
+      <c r="A250" s="3">
         <v>929</v>
       </c>
       <c r="B250">
@@ -11676,7 +11680,7 @@
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A251">
+      <c r="A251" s="3">
         <v>312</v>
       </c>
       <c r="B251">
@@ -11711,7 +11715,7 @@
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A252">
+      <c r="A252" s="3">
         <v>29933</v>
       </c>
       <c r="B252">
@@ -11746,7 +11750,7 @@
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A253">
+      <c r="A253" s="3">
         <v>6337</v>
       </c>
       <c r="B253">
@@ -11781,7 +11785,7 @@
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A254">
+      <c r="A254" s="3">
         <v>23086</v>
       </c>
       <c r="B254">
@@ -11816,7 +11820,7 @@
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A255">
+      <c r="A255" s="3">
         <v>150244</v>
       </c>
       <c r="B255">
@@ -11851,7 +11855,7 @@
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A256">
+      <c r="A256" s="3">
         <v>53840</v>
       </c>
       <c r="B256">
@@ -11886,7 +11890,7 @@
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A257">
+      <c r="A257" s="3">
         <v>5129</v>
       </c>
       <c r="B257">
@@ -11921,7 +11925,7 @@
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A258">
+      <c r="A258" s="3">
         <v>26298</v>
       </c>
       <c r="B258">
@@ -11956,7 +11960,7 @@
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A259">
+      <c r="A259" s="3">
         <v>201181</v>
       </c>
       <c r="B259">
@@ -11991,7 +11995,7 @@
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A260">
+      <c r="A260" s="3">
         <v>56829</v>
       </c>
       <c r="B260">
@@ -12026,7 +12030,7 @@
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A261">
+      <c r="A261" s="3">
         <v>5366</v>
       </c>
       <c r="B261">
@@ -12061,7 +12065,7 @@
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A262">
+      <c r="A262" s="3">
         <v>51056</v>
       </c>
       <c r="B262">
@@ -12096,7 +12100,7 @@
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A263">
+      <c r="A263" s="3">
         <v>116984</v>
       </c>
       <c r="B263">
@@ -12131,7 +12135,7 @@
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A264">
+      <c r="A264" s="3">
         <v>130733</v>
       </c>
       <c r="B264">
@@ -12166,7 +12170,7 @@
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A265">
+      <c r="A265" s="3">
         <v>26257</v>
       </c>
       <c r="B265">
@@ -12201,7 +12205,7 @@
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A266">
+      <c r="A266" s="3">
         <v>6288</v>
       </c>
       <c r="B266">
@@ -12236,7 +12240,7 @@
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A267">
+      <c r="A267" s="3">
         <v>8111</v>
       </c>
       <c r="B267">
@@ -12271,7 +12275,7 @@
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A268">
+      <c r="A268" s="3">
         <v>11054</v>
       </c>
       <c r="B268">
@@ -12306,7 +12310,7 @@
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A269">
+      <c r="A269" s="3">
         <v>85363</v>
       </c>
       <c r="B269">
@@ -12341,7 +12345,7 @@
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A270">
+      <c r="A270" s="3">
         <v>29103</v>
       </c>
       <c r="B270">
@@ -12376,7 +12380,7 @@
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A271">
+      <c r="A271" s="3">
         <v>5610</v>
       </c>
       <c r="B271">
@@ -12411,7 +12415,7 @@
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A272">
+      <c r="A272" s="3">
         <v>8972</v>
       </c>
       <c r="B272">
@@ -12446,7 +12450,7 @@
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A273">
+      <c r="A273" s="3">
         <v>84070</v>
       </c>
       <c r="B273">
@@ -12481,7 +12485,7 @@
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A274">
+      <c r="A274" s="3">
         <v>2044</v>
       </c>
       <c r="B274">
@@ -12516,7 +12520,7 @@
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A275">
+      <c r="A275" s="3">
         <v>7099</v>
       </c>
       <c r="B275">
@@ -12551,7 +12555,7 @@
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A276">
+      <c r="A276" s="3">
         <v>100506779</v>
       </c>
       <c r="B276">
@@ -12586,7 +12590,7 @@
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A277">
+      <c r="A277" s="3">
         <v>26137</v>
       </c>
       <c r="B277">
@@ -12621,7 +12625,7 @@
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A278">
+      <c r="A278" s="3">
         <v>3934</v>
       </c>
       <c r="B278">
@@ -12656,7 +12660,7 @@
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A279">
+      <c r="A279" s="3">
         <v>10900</v>
       </c>
       <c r="B279">
@@ -12691,7 +12695,7 @@
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A280">
+      <c r="A280" s="3">
         <v>25780</v>
       </c>
       <c r="B280">
@@ -12726,7 +12730,7 @@
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A281">
+      <c r="A281" s="3">
         <v>10814</v>
       </c>
       <c r="B281">
@@ -12761,7 +12765,7 @@
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A282">
+      <c r="A282" s="3">
         <v>10384</v>
       </c>
       <c r="B282">
@@ -12796,7 +12800,7 @@
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A283">
+      <c r="A283" s="3">
         <v>25865</v>
       </c>
       <c r="B283">
@@ -12831,7 +12835,7 @@
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A284">
+      <c r="A284" s="3">
         <v>66002</v>
       </c>
       <c r="B284">
@@ -12866,7 +12870,7 @@
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A285">
+      <c r="A285" s="3">
         <v>80117</v>
       </c>
       <c r="B285">
@@ -12901,7 +12905,7 @@
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A286">
+      <c r="A286" s="3">
         <v>113278</v>
       </c>
       <c r="B286">
@@ -12936,7 +12940,7 @@
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A287">
+      <c r="A287" s="3">
         <v>2323</v>
       </c>
       <c r="B287">
@@ -12971,7 +12975,7 @@
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A288">
+      <c r="A288" s="3">
         <v>23284</v>
       </c>
       <c r="B288">
@@ -13006,7 +13010,7 @@
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A289">
+      <c r="A289" s="3">
         <v>999</v>
       </c>
       <c r="B289">
@@ -13041,7 +13045,7 @@
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A290">
+      <c r="A290" s="3">
         <v>147138</v>
       </c>
       <c r="B290">
@@ -13076,7 +13080,7 @@
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A291">
+      <c r="A291" s="3">
         <v>6672</v>
       </c>
       <c r="B291">
@@ -13111,7 +13115,7 @@
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A292">
+      <c r="A292" s="3">
         <v>55300</v>
       </c>
       <c r="B292">
@@ -13146,7 +13150,7 @@
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A293">
+      <c r="A293" s="3">
         <v>284618</v>
       </c>
       <c r="B293">
@@ -13181,7 +13185,7 @@
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A294">
+      <c r="A294" s="3">
         <v>3959</v>
       </c>
       <c r="B294">
@@ -13216,7 +13220,7 @@
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A295">
+      <c r="A295" s="3">
         <v>26052</v>
       </c>
       <c r="B295">
@@ -13251,7 +13255,7 @@
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A296">
+      <c r="A296" s="3">
         <v>157638</v>
       </c>
       <c r="B296">
@@ -13286,7 +13290,7 @@
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A297">
+      <c r="A297" s="3">
         <v>10103</v>
       </c>
       <c r="B297">
@@ -13321,7 +13325,7 @@
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A298">
+      <c r="A298" s="3">
         <v>378706</v>
       </c>
       <c r="B298">
@@ -13356,7 +13360,7 @@
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A299">
+      <c r="A299" s="3">
         <v>10628</v>
       </c>
       <c r="B299">
@@ -13391,7 +13395,7 @@
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A300">
+      <c r="A300" s="3">
         <v>29798</v>
       </c>
       <c r="B300">
@@ -13426,7 +13430,7 @@
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A301">
+      <c r="A301" s="3">
         <v>57822</v>
       </c>
       <c r="B301">
@@ -13461,7 +13465,7 @@
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A302">
+      <c r="A302" s="3">
         <v>23539</v>
       </c>
       <c r="B302">
@@ -13496,7 +13500,7 @@
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A303">
+      <c r="A303" s="3">
         <v>112817</v>
       </c>
       <c r="B303">
@@ -13531,7 +13535,7 @@
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A304">
+      <c r="A304" s="3">
         <v>139324</v>
       </c>
       <c r="B304">
@@ -13566,7 +13570,7 @@
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A305">
+      <c r="A305" s="3">
         <v>4784</v>
       </c>
       <c r="B305">
@@ -13601,7 +13605,7 @@
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A306">
+      <c r="A306" s="3">
         <v>51302</v>
       </c>
       <c r="B306">
@@ -13636,7 +13640,7 @@
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A307">
+      <c r="A307" s="3">
         <v>619207</v>
       </c>
       <c r="B307">
@@ -13671,7 +13675,7 @@
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A308">
+      <c r="A308" s="3">
         <v>200316</v>
       </c>
       <c r="B308">
@@ -13706,7 +13710,7 @@
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A309">
+      <c r="A309" s="3">
         <v>8542</v>
       </c>
       <c r="B309">
@@ -13741,7 +13745,7 @@
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A310">
+      <c r="A310" s="3">
         <v>3660</v>
       </c>
       <c r="B310">
@@ -13776,7 +13780,7 @@
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A311">
+      <c r="A311" s="3">
         <v>2634</v>
       </c>
       <c r="B311">
@@ -13811,7 +13815,7 @@
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A312">
+      <c r="A312" s="3">
         <v>3133</v>
       </c>
       <c r="B312">
@@ -13846,7 +13850,7 @@
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A313">
+      <c r="A313" s="3">
         <v>715</v>
       </c>
       <c r="B313">
@@ -13881,7 +13885,7 @@
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A314">
+      <c r="A314" s="3">
         <v>716</v>
       </c>
       <c r="B314">
@@ -13916,7 +13920,7 @@
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A315">
+      <c r="A315" s="3">
         <v>10581</v>
       </c>
       <c r="B315">
@@ -13951,7 +13955,7 @@
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A316">
+      <c r="A316" s="3">
         <v>9294</v>
       </c>
       <c r="B316">
@@ -13986,7 +13990,7 @@
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A317">
+      <c r="A317" s="3">
         <v>27134</v>
       </c>
       <c r="B317">
@@ -14021,7 +14025,7 @@
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A318">
+      <c r="A318" s="3">
         <v>8673</v>
       </c>
       <c r="B318">
@@ -14056,7 +14060,7 @@
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A319">
+      <c r="A319" s="3">
         <v>4051</v>
       </c>
       <c r="B319">
@@ -14091,7 +14095,7 @@
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A320">
+      <c r="A320" s="3">
         <v>100128292</v>
       </c>
       <c r="B320">
@@ -14126,7 +14130,7 @@
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A321">
+      <c r="A321" s="3">
         <v>5699</v>
       </c>
       <c r="B321">
@@ -14161,7 +14165,7 @@
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A322">
+      <c r="A322" s="3">
         <v>127544</v>
       </c>
       <c r="B322">
@@ -14196,7 +14200,7 @@
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A323">
+      <c r="A323" s="3">
         <v>25837</v>
       </c>
       <c r="B323">
@@ -14231,7 +14235,7 @@
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A324">
+      <c r="A324" s="3">
         <v>29948</v>
       </c>
       <c r="B324">
@@ -14266,7 +14270,7 @@
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A325">
+      <c r="A325" s="3">
         <v>114757</v>
       </c>
       <c r="B325">
@@ -14301,7 +14305,7 @@
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A326">
+      <c r="A326" s="3">
         <v>57674</v>
       </c>
       <c r="B326">
@@ -14336,7 +14340,7 @@
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A327">
+      <c r="A327" s="3">
         <v>2687</v>
       </c>
       <c r="B327">
@@ -14371,7 +14375,7 @@
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A328">
+      <c r="A328" s="3">
         <v>10110</v>
       </c>
       <c r="B328">
@@ -14406,7 +14410,7 @@
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A329">
+      <c r="A329" s="3">
         <v>51427</v>
       </c>
       <c r="B329">
@@ -14441,7 +14445,7 @@
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A330">
+      <c r="A330" s="3">
         <v>9674</v>
       </c>
       <c r="B330">
@@ -14476,7 +14480,7 @@
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A331">
+      <c r="A331" s="3">
         <v>10906</v>
       </c>
       <c r="B331">
@@ -14511,7 +14515,7 @@
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A332">
+      <c r="A332" s="3">
         <v>400745</v>
       </c>
       <c r="B332">
@@ -14546,7 +14550,7 @@
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A333">
+      <c r="A333" s="3">
         <v>9901</v>
       </c>
       <c r="B333">
@@ -14581,7 +14585,7 @@
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A334">
+      <c r="A334" s="3">
         <v>89944</v>
       </c>
       <c r="B334">
@@ -14616,7 +14620,7 @@
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A335">
+      <c r="A335" s="3">
         <v>2877</v>
       </c>
       <c r="B335">
@@ -14651,7 +14655,7 @@
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A336">
+      <c r="A336" s="3">
         <v>968</v>
       </c>
       <c r="B336">
@@ -14686,7 +14690,7 @@
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A337">
+      <c r="A337" s="3">
         <v>8626</v>
       </c>
       <c r="B337">
@@ -14721,7 +14725,7 @@
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A338">
+      <c r="A338" s="3">
         <v>51673</v>
       </c>
       <c r="B338">
@@ -14756,7 +14760,7 @@
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A339">
+      <c r="A339" s="3">
         <v>26270</v>
       </c>
       <c r="B339">
@@ -14791,7 +14795,7 @@
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A340">
+      <c r="A340" s="3">
         <v>10158</v>
       </c>
       <c r="B340">
@@ -14826,7 +14830,7 @@
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A341">
+      <c r="A341" s="3">
         <v>4868</v>
       </c>
       <c r="B341">
@@ -14861,7 +14865,7 @@
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A342">
+      <c r="A342" s="3">
         <v>1506</v>
       </c>
       <c r="B342">
@@ -14896,7 +14900,7 @@
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A343">
+      <c r="A343" s="3">
         <v>153684</v>
       </c>
       <c r="B343">
@@ -14931,7 +14935,7 @@
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A344">
+      <c r="A344" s="3">
         <v>9111</v>
       </c>
       <c r="B344">
@@ -14966,7 +14970,7 @@
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A345">
+      <c r="A345" s="3">
         <v>2920</v>
       </c>
       <c r="B345">
@@ -15001,7 +15005,7 @@
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A346">
+      <c r="A346" s="3">
         <v>375287</v>
       </c>
       <c r="B346">
@@ -15036,7 +15040,7 @@
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A347">
+      <c r="A347" s="3">
         <v>387097</v>
       </c>
       <c r="B347">
@@ -15071,7 +15075,7 @@
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A348">
+      <c r="A348" s="3">
         <v>7726</v>
       </c>
       <c r="B348">
@@ -15106,7 +15110,7 @@
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A349">
+      <c r="A349" s="3">
         <v>55068</v>
       </c>
       <c r="B349">
@@ -15141,7 +15145,7 @@
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A350">
+      <c r="A350" s="3">
         <v>9737</v>
       </c>
       <c r="B350">
@@ -15176,7 +15180,7 @@
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A351">
+      <c r="A351" s="3">
         <v>58985</v>
       </c>
       <c r="B351">
@@ -15211,7 +15215,7 @@
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A352">
+      <c r="A352" s="3">
         <v>159091</v>
       </c>
       <c r="B352">
@@ -15246,7 +15250,7 @@
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A353">
+      <c r="A353" s="3">
         <v>30844</v>
       </c>
       <c r="B353">
@@ -15281,7 +15285,7 @@
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A354">
+      <c r="A354" s="3">
         <v>5081</v>
       </c>
       <c r="B354">
@@ -15316,7 +15320,7 @@
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A355">
+      <c r="A355" s="3">
         <v>22849</v>
       </c>
       <c r="B355">
@@ -15351,7 +15355,7 @@
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A356">
+      <c r="A356" s="3">
         <v>283120</v>
       </c>
       <c r="B356">
@@ -15386,7 +15390,7 @@
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A357">
+      <c r="A357" s="3">
         <v>9966</v>
       </c>
       <c r="B357">
@@ -15421,7 +15425,7 @@
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A358">
+      <c r="A358" s="3">
         <v>1520</v>
       </c>
       <c r="B358">
@@ -15456,7 +15460,7 @@
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A359">
+      <c r="A359" s="3">
         <v>27063</v>
       </c>
       <c r="B359">
@@ -15491,7 +15495,7 @@
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A360">
+      <c r="A360" s="3">
         <v>103</v>
       </c>
       <c r="B360">
@@ -15526,7 +15530,7 @@
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A361">
+      <c r="A361" s="3">
         <v>342908</v>
       </c>
       <c r="B361">
@@ -15561,7 +15565,7 @@
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A362">
+      <c r="A362" s="3">
         <v>221806</v>
       </c>
       <c r="B362">
@@ -15596,7 +15600,7 @@
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A363">
+      <c r="A363" s="3">
         <v>3214</v>
       </c>
       <c r="B363">
@@ -15631,7 +15635,7 @@
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A364">
+      <c r="A364" s="3">
         <v>162394</v>
       </c>
       <c r="B364">
@@ -15666,7 +15670,7 @@
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A365">
+      <c r="A365" s="3">
         <v>140699</v>
       </c>
       <c r="B365">
@@ -15701,7 +15705,7 @@
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A366">
+      <c r="A366" s="3">
         <v>81894</v>
       </c>
       <c r="B366">
@@ -15736,7 +15740,7 @@
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A367">
+      <c r="A367" s="3">
         <v>80761</v>
       </c>
       <c r="B367">
@@ -15771,7 +15775,7 @@
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A368">
+      <c r="A368" s="3">
         <v>5734</v>
       </c>
       <c r="B368">
@@ -15806,7 +15810,7 @@
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A369">
+      <c r="A369" s="3">
         <v>25819</v>
       </c>
       <c r="B369">
@@ -15841,7 +15845,7 @@
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A370">
+      <c r="A370" s="3">
         <v>57834</v>
       </c>
       <c r="B370">
@@ -15876,7 +15880,7 @@
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A371">
+      <c r="A371" s="3">
         <v>348801</v>
       </c>
       <c r="B371">
@@ -15911,7 +15915,7 @@
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A372">
+      <c r="A372" s="3">
         <v>202</v>
       </c>
       <c r="B372">
@@ -15946,7 +15950,7 @@
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A373">
+      <c r="A373" s="3">
         <v>1267</v>
       </c>
       <c r="B373">
@@ -15981,7 +15985,7 @@
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A374">
+      <c r="A374" s="3">
         <v>12</v>
       </c>
       <c r="B374">
@@ -16016,7 +16020,7 @@
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A375">
+      <c r="A375" s="3">
         <v>643596</v>
       </c>
       <c r="B375">
@@ -16051,7 +16055,7 @@
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A376">
+      <c r="A376" s="3">
         <v>727897</v>
       </c>
       <c r="B376">
@@ -16086,7 +16090,7 @@
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A377">
+      <c r="A377" s="3">
         <v>284021</v>
       </c>
       <c r="B377">
@@ -16121,7 +16125,7 @@
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A378">
+      <c r="A378" s="3">
         <v>6296</v>
       </c>
       <c r="B378">
@@ -16156,7 +16160,7 @@
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A379">
+      <c r="A379" s="3">
         <v>8740</v>
       </c>
       <c r="B379">
@@ -16191,7 +16195,7 @@
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A380">
+      <c r="A380" s="3">
         <v>4151</v>
       </c>
       <c r="B380">
@@ -16226,7 +16230,7 @@
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A381">
+      <c r="A381" s="3">
         <v>9567</v>
       </c>
       <c r="B381">
@@ -16261,7 +16265,7 @@
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A382">
+      <c r="A382" s="3">
         <v>5148</v>
       </c>
       <c r="B382">
@@ -16296,7 +16300,7 @@
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A383">
+      <c r="A383" s="3">
         <v>9429</v>
       </c>
       <c r="B383">
@@ -16331,7 +16335,7 @@
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A384">
+      <c r="A384" s="3">
         <v>54877</v>
       </c>
       <c r="B384">
@@ -16366,7 +16370,7 @@
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A385">
+      <c r="A385" s="3">
         <v>100505666</v>
       </c>
       <c r="B385">
@@ -16401,7 +16405,7 @@
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A386">
+      <c r="A386" s="3">
         <v>494514</v>
       </c>
       <c r="B386">
@@ -16436,7 +16440,7 @@
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A387">
+      <c r="A387" s="3">
         <v>3696</v>
       </c>
       <c r="B387">
@@ -16471,7 +16475,7 @@
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A388">
+      <c r="A388" s="3">
         <v>100128927</v>
       </c>
       <c r="B388">
@@ -16506,7 +16510,7 @@
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A389">
+      <c r="A389" s="3">
         <v>843</v>
       </c>
       <c r="B389">
@@ -16541,7 +16545,7 @@
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A390">
+      <c r="A390" s="3">
         <v>57194</v>
       </c>
       <c r="B390">
@@ -16576,7 +16580,7 @@
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A391">
+      <c r="A391" s="3">
         <v>57507</v>
       </c>
       <c r="B391">
@@ -16611,7 +16615,7 @@
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A392">
+      <c r="A392" s="3">
         <v>4192</v>
       </c>
       <c r="B392">
@@ -16646,7 +16650,7 @@
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A393">
+      <c r="A393" s="3">
         <v>84106</v>
       </c>
       <c r="B393">
@@ -16681,7 +16685,7 @@
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A394">
+      <c r="A394" s="3">
         <v>89866</v>
       </c>
       <c r="B394">
@@ -16716,7 +16720,7 @@
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A395">
+      <c r="A395" s="3">
         <v>330</v>
       </c>
       <c r="B395">
@@ -16751,7 +16755,7 @@
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A396">
+      <c r="A396" s="3">
         <v>1308</v>
       </c>
       <c r="B396">
@@ -16786,7 +16790,7 @@
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A397">
+      <c r="A397" s="3">
         <v>339541</v>
       </c>
       <c r="B397">
@@ -16821,7 +16825,7 @@
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A398">
+      <c r="A398" s="3">
         <v>6775</v>
       </c>
       <c r="B398">
@@ -16856,7 +16860,7 @@
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A399">
+      <c r="A399" s="3">
         <v>51313</v>
       </c>
       <c r="B399">
@@ -16891,7 +16895,7 @@
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A400">
+      <c r="A400" s="3">
         <v>10437</v>
       </c>
       <c r="B400">
@@ -16926,7 +16930,7 @@
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A401">
+      <c r="A401" s="3">
         <v>6590</v>
       </c>
       <c r="B401">
@@ -16961,7 +16965,7 @@
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A402">
+      <c r="A402" s="3">
         <v>5721</v>
       </c>
       <c r="B402">
@@ -16996,7 +17000,7 @@
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A403">
+      <c r="A403" s="3">
         <v>840</v>
       </c>
       <c r="B403">
@@ -17031,7 +17035,7 @@
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A404">
+      <c r="A404" s="3">
         <v>2266</v>
       </c>
       <c r="B404">
@@ -17066,7 +17070,7 @@
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A405">
+      <c r="A405" s="3">
         <v>53630</v>
       </c>
       <c r="B405">
@@ -17101,7 +17105,7 @@
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A406">
+      <c r="A406" s="3">
         <v>8775</v>
       </c>
       <c r="B406">
@@ -17136,7 +17140,7 @@
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A407">
+      <c r="A407" s="3">
         <v>81844</v>
       </c>
       <c r="B407">
@@ -17171,7 +17175,7 @@
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A408">
+      <c r="A408" s="3">
         <v>23786</v>
       </c>
       <c r="B408">
@@ -17206,7 +17210,7 @@
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A409">
+      <c r="A409" s="3">
         <v>9465</v>
       </c>
       <c r="B409">
@@ -17241,7 +17245,7 @@
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A410">
+      <c r="A410" s="3">
         <v>352954</v>
       </c>
       <c r="B410">
@@ -17276,7 +17280,7 @@
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A411">
+      <c r="A411" s="3">
         <v>112609</v>
       </c>
       <c r="B411">
@@ -17311,7 +17315,7 @@
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A412">
+      <c r="A412" s="3">
         <v>123720</v>
       </c>
       <c r="B412">
@@ -17346,7 +17350,7 @@
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A413">
+      <c r="A413" s="3">
         <v>1140</v>
       </c>
       <c r="B413">
@@ -17381,7 +17385,7 @@
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A414">
+      <c r="A414" s="3">
         <v>57535</v>
       </c>
       <c r="B414">
@@ -17416,7 +17420,7 @@
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A415">
+      <c r="A415" s="3">
         <v>190</v>
       </c>
       <c r="B415">
@@ -17451,7 +17455,7 @@
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A416">
+      <c r="A416" s="3">
         <v>9185</v>
       </c>
       <c r="B416">
@@ -17486,7 +17490,7 @@
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A417">
+      <c r="A417" s="3">
         <v>10693</v>
       </c>
       <c r="B417">
@@ -17521,7 +17525,7 @@
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A418">
+      <c r="A418" s="3">
         <v>1949</v>
       </c>
       <c r="B418">
@@ -17556,7 +17560,7 @@
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A419">
+      <c r="A419" s="3">
         <v>11240</v>
       </c>
       <c r="B419">
@@ -17591,7 +17595,7 @@
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A420">
+      <c r="A420" s="3">
         <v>162979</v>
       </c>
       <c r="B420">
@@ -17626,7 +17630,7 @@
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A421">
+      <c r="A421" s="3">
         <v>84930</v>
       </c>
       <c r="B421">
@@ -17661,7 +17665,7 @@
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A422">
+      <c r="A422" s="3">
         <v>23007</v>
       </c>
       <c r="B422">
@@ -17696,7 +17700,7 @@
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A423">
+      <c r="A423" s="3">
         <v>645676</v>
       </c>
       <c r="B423">
@@ -17731,7 +17735,7 @@
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A424">
+      <c r="A424" s="3">
         <v>79983</v>
       </c>
       <c r="B424">
@@ -17766,7 +17770,7 @@
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A425">
+      <c r="A425" s="3">
         <v>3107</v>
       </c>
       <c r="B425">
@@ -17801,7 +17805,7 @@
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A426">
+      <c r="A426" s="3">
         <v>1040</v>
       </c>
       <c r="B426">
@@ -17836,7 +17840,7 @@
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A427">
+      <c r="A427" s="3">
         <v>402665</v>
       </c>
       <c r="B427">
@@ -17871,7 +17875,7 @@
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A428">
+      <c r="A428" s="3">
         <v>10172</v>
       </c>
       <c r="B428">
@@ -17906,7 +17910,7 @@
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A429">
+      <c r="A429" s="3">
         <v>23070</v>
       </c>
       <c r="B429">
@@ -17941,7 +17945,7 @@
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A430">
+      <c r="A430" s="3">
         <v>29774</v>
       </c>
       <c r="B430">
@@ -17976,7 +17980,7 @@
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A431">
+      <c r="A431" s="3">
         <v>9314</v>
       </c>
       <c r="B431">
@@ -18011,7 +18015,7 @@
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A432">
+      <c r="A432" s="3">
         <v>55080</v>
       </c>
       <c r="B432">
@@ -18046,7 +18050,7 @@
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A433">
+      <c r="A433" s="3">
         <v>78998</v>
       </c>
       <c r="B433">
@@ -18081,7 +18085,7 @@
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A434">
+      <c r="A434" s="3">
         <v>100130933</v>
       </c>
       <c r="B434">
@@ -18116,7 +18120,7 @@
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A435">
+      <c r="A435" s="3">
         <v>567</v>
       </c>
       <c r="B435">
@@ -18151,7 +18155,7 @@
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A436">
+      <c r="A436" s="3">
         <v>3689</v>
       </c>
       <c r="B436">
@@ -18186,7 +18190,7 @@
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A437">
+      <c r="A437" s="3">
         <v>28951</v>
       </c>
       <c r="B437">
@@ -18221,7 +18225,7 @@
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A438">
+      <c r="A438" s="3">
         <v>3426</v>
       </c>
       <c r="B438">
@@ -18256,7 +18260,7 @@
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A439">
+      <c r="A439" s="3">
         <v>23767</v>
       </c>
       <c r="B439">
@@ -18291,7 +18295,7 @@
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A440">
+      <c r="A440" s="3">
         <v>126820</v>
       </c>
       <c r="B440">
@@ -18326,7 +18330,7 @@
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A441">
+      <c r="A441" s="3">
         <v>285368</v>
       </c>
       <c r="B441">
@@ -18361,7 +18365,7 @@
       </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A442">
+      <c r="A442" s="3">
         <v>57016</v>
       </c>
       <c r="B442">
@@ -18396,7 +18400,7 @@
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A443">
+      <c r="A443" s="3">
         <v>9976</v>
       </c>
       <c r="B443">
@@ -18431,7 +18435,7 @@
       </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A444">
+      <c r="A444" s="3">
         <v>6347</v>
       </c>
       <c r="B444">
@@ -18466,7 +18470,7 @@
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A445">
+      <c r="A445" s="3">
         <v>10451</v>
       </c>
       <c r="B445">
@@ -18501,7 +18505,7 @@
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A446">
+      <c r="A446" s="3">
         <v>1435</v>
       </c>
       <c r="B446">
@@ -18536,7 +18540,7 @@
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A447">
+      <c r="A447" s="3">
         <v>3698</v>
       </c>
       <c r="B447">
@@ -18571,7 +18575,7 @@
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A448">
+      <c r="A448" s="3">
         <v>728730</v>
       </c>
       <c r="B448">
@@ -18606,7 +18610,7 @@
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A449">
+      <c r="A449" s="3">
         <v>11074</v>
       </c>
       <c r="B449">
@@ -18641,7 +18645,7 @@
       </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A450">
+      <c r="A450" s="3">
         <v>57088</v>
       </c>
       <c r="B450">
@@ -18676,7 +18680,7 @@
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A451">
+      <c r="A451" s="3">
         <v>57493</v>
       </c>
       <c r="B451">
@@ -18711,7 +18715,7 @@
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A452">
+      <c r="A452" s="3">
         <v>11119</v>
       </c>
       <c r="B452">
@@ -18746,7 +18750,7 @@
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A453">
+      <c r="A453" s="3">
         <v>148932</v>
       </c>
       <c r="B453">
@@ -18781,7 +18785,7 @@
       </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A454">
+      <c r="A454" s="3">
         <v>728743</v>
       </c>
       <c r="B454">
@@ -18816,7 +18820,7 @@
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A455">
+      <c r="A455" s="3">
         <v>22996</v>
       </c>
       <c r="B455">
@@ -18851,7 +18855,7 @@
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A456">
+      <c r="A456" s="3">
         <v>56062</v>
       </c>
       <c r="B456">
@@ -18886,7 +18890,7 @@
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A457">
+      <c r="A457" s="3">
         <v>440603</v>
       </c>
       <c r="B457">
@@ -18921,7 +18925,7 @@
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A458">
+      <c r="A458" s="3">
         <v>93663</v>
       </c>
       <c r="B458">
@@ -18956,7 +18960,7 @@
       </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A459">
+      <c r="A459" s="3">
         <v>2267</v>
       </c>
       <c r="B459">
@@ -18991,7 +18995,7 @@
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A460">
+      <c r="A460" s="3">
         <v>51131</v>
       </c>
       <c r="B460">
@@ -19026,7 +19030,7 @@
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A461">
+      <c r="A461" s="3">
         <v>3140</v>
       </c>
       <c r="B461">
@@ -19061,7 +19065,7 @@
       </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A462">
+      <c r="A462" s="3">
         <v>140738</v>
       </c>
       <c r="B462">
@@ -19096,7 +19100,7 @@
       </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A463">
+      <c r="A463" s="3">
         <v>399815</v>
       </c>
       <c r="B463">
@@ -19131,7 +19135,7 @@
       </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A464">
+      <c r="A464" s="3">
         <v>53616</v>
       </c>
       <c r="B464">
@@ -19166,7 +19170,7 @@
       </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A465">
+      <c r="A465" s="3">
         <v>84628</v>
       </c>
       <c r="B465">
@@ -19201,7 +19205,7 @@
       </c>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A466">
+      <c r="A466" s="3">
         <v>92359</v>
       </c>
       <c r="B466">
@@ -19236,7 +19240,7 @@
       </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A467">
+      <c r="A467" s="3">
         <v>874</v>
       </c>
       <c r="B467">
@@ -19271,7 +19275,7 @@
       </c>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A468">
+      <c r="A468" s="3">
         <v>4072</v>
       </c>
       <c r="B468">
@@ -19306,7 +19310,7 @@
       </c>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A469">
+      <c r="A469" s="3">
         <v>64081</v>
       </c>
       <c r="B469">
@@ -19341,7 +19345,7 @@
       </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A470">
+      <c r="A470" s="3">
         <v>93349</v>
       </c>
       <c r="B470">
@@ -19376,7 +19380,7 @@
       </c>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A471">
+      <c r="A471" s="3">
         <v>3914</v>
       </c>
       <c r="B471">
@@ -19411,7 +19415,7 @@
       </c>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A472">
+      <c r="A472" s="3">
         <v>11184</v>
       </c>
       <c r="B472">
@@ -19446,7 +19450,7 @@
       </c>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A473">
+      <c r="A473" s="3">
         <v>93164</v>
       </c>
       <c r="B473">
@@ -19481,7 +19485,7 @@
       </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A474">
+      <c r="A474" s="3">
         <v>4680</v>
       </c>
       <c r="B474">
@@ -19516,7 +19520,7 @@
       </c>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A475">
+      <c r="A475" s="3">
         <v>5099</v>
       </c>
       <c r="B475">
@@ -19551,7 +19555,7 @@
       </c>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A476">
+      <c r="A476" s="3">
         <v>10788</v>
       </c>
       <c r="B476">
@@ -19586,7 +19590,7 @@
       </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A477">
+      <c r="A477" s="3">
         <v>113277</v>
       </c>
       <c r="B477">
@@ -19621,7 +19625,7 @@
       </c>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A478">
+      <c r="A478" s="3">
         <v>80021</v>
       </c>
       <c r="B478">
@@ -19656,7 +19660,7 @@
       </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A479">
+      <c r="A479" s="3">
         <v>6275</v>
       </c>
       <c r="B479">
@@ -19691,7 +19695,7 @@
       </c>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A480">
+      <c r="A480" s="3">
         <v>100130744</v>
       </c>
       <c r="B480">
@@ -19726,7 +19730,7 @@
       </c>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A481">
+      <c r="A481" s="3">
         <v>83988</v>
       </c>
       <c r="B481">
@@ -19761,7 +19765,7 @@
       </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A482">
+      <c r="A482" s="3">
         <v>7412</v>
       </c>
       <c r="B482">
@@ -19796,7 +19800,7 @@
       </c>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A483">
+      <c r="A483" s="3">
         <v>259232</v>
       </c>
       <c r="B483">
@@ -19831,7 +19835,7 @@
       </c>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A484">
+      <c r="A484" s="3">
         <v>27113</v>
       </c>
       <c r="B484">
@@ -19866,7 +19870,7 @@
       </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A485">
+      <c r="A485" s="3">
         <v>56134</v>
       </c>
       <c r="B485">
@@ -19901,7 +19905,7 @@
       </c>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A486">
+      <c r="A486" s="3">
         <v>113451</v>
       </c>
       <c r="B486">
@@ -19936,7 +19940,7 @@
       </c>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A487">
+      <c r="A487" s="3">
         <v>79633</v>
       </c>
       <c r="B487">
@@ -19971,7 +19975,7 @@
       </c>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A488">
+      <c r="A488" s="3">
         <v>8601</v>
       </c>
       <c r="B488">
@@ -20006,7 +20010,7 @@
       </c>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A489">
+      <c r="A489" s="3">
         <v>4312</v>
       </c>
       <c r="B489">
@@ -20041,7 +20045,7 @@
       </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A490">
+      <c r="A490" s="3">
         <v>644242</v>
       </c>
       <c r="B490">
@@ -20076,7 +20080,7 @@
       </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A491">
+      <c r="A491" s="3">
         <v>2303</v>
       </c>
       <c r="B491">
@@ -20111,7 +20115,7 @@
       </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A492">
+      <c r="A492" s="3">
         <v>28513</v>
       </c>
       <c r="B492">
@@ -20146,7 +20150,7 @@
       </c>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A493">
+      <c r="A493" s="3">
         <v>51339</v>
       </c>
       <c r="B493">
@@ -20181,7 +20185,7 @@
       </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A494">
+      <c r="A494" s="3">
         <v>84648</v>
       </c>
       <c r="B494">
@@ -20216,7 +20220,7 @@
       </c>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A495">
+      <c r="A495" s="3">
         <v>162966</v>
       </c>
       <c r="B495">
@@ -20251,7 +20255,7 @@
       </c>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A496">
+      <c r="A496" s="3">
         <v>648791</v>
       </c>
       <c r="B496">
@@ -20286,7 +20290,7 @@
       </c>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A497">
+      <c r="A497" s="3">
         <v>768</v>
       </c>
       <c r="B497">
@@ -20321,7 +20325,7 @@
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A498">
+      <c r="A498" s="3">
         <v>170958</v>
       </c>
       <c r="B498">
@@ -20356,7 +20360,7 @@
       </c>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A499">
+      <c r="A499" s="3">
         <v>1293</v>
       </c>
       <c r="B499">
@@ -20391,7 +20395,7 @@
       </c>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A500">
+      <c r="A500" s="3">
         <v>3488</v>
       </c>
       <c r="B500">
@@ -20426,7 +20430,7 @@
       </c>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A501">
+      <c r="A501" s="3">
         <v>654</v>
       </c>
       <c r="B501">
@@ -20461,7 +20465,7 @@
       </c>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A502">
+      <c r="A502" s="3">
         <v>169044</v>
       </c>
       <c r="B502">
@@ -20496,7 +20500,7 @@
       </c>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A503">
+      <c r="A503" s="3">
         <v>4884</v>
       </c>
       <c r="B503">
@@ -20531,7 +20535,7 @@
       </c>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A504">
+      <c r="A504" s="3">
         <v>100131378</v>
       </c>
       <c r="B504">
@@ -20566,7 +20570,7 @@
       </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A505">
+      <c r="A505" s="3">
         <v>3484</v>
       </c>
       <c r="B505">
@@ -20601,7 +20605,7 @@
       </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A506">
+      <c r="A506" s="3">
         <v>100529063</v>
       </c>
       <c r="B506">
@@ -20636,7 +20640,7 @@
       </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A507">
+      <c r="A507" s="3">
         <v>3624</v>
       </c>
       <c r="B507">
@@ -20671,7 +20675,7 @@
       </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A508">
+      <c r="A508" s="3">
         <v>2707</v>
       </c>
       <c r="B508">
@@ -20706,7 +20710,7 @@
       </c>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A509">
+      <c r="A509" s="3">
         <v>388588</v>
       </c>
       <c r="B509">
@@ -20741,7 +20745,7 @@
       </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A510">
+      <c r="A510" s="3">
         <v>54855</v>
       </c>
       <c r="B510">
@@ -20776,7 +20780,7 @@
       </c>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A511">
+      <c r="A511" s="3">
         <v>90865</v>
       </c>
       <c r="B511">
@@ -20811,7 +20815,7 @@
       </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A512">
+      <c r="A512" s="3">
         <v>3589</v>
       </c>
       <c r="B512">
@@ -20846,7 +20850,7 @@
       </c>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A513">
+      <c r="A513" s="3">
         <v>10397</v>
       </c>
       <c r="B513">
@@ -20881,7 +20885,7 @@
       </c>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A514">
+      <c r="A514" s="3">
         <v>254559</v>
       </c>
       <c r="B514">
@@ -20916,7 +20920,7 @@
       </c>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A515">
+      <c r="A515" s="3">
         <v>91584</v>
       </c>
       <c r="B515">
@@ -20951,7 +20955,7 @@
       </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A516">
+      <c r="A516" s="3">
         <v>3853</v>
       </c>
       <c r="B516">
@@ -20986,7 +20990,7 @@
       </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A517">
+      <c r="A517" s="3">
         <v>6781</v>
       </c>
       <c r="B517">
@@ -21021,7 +21025,7 @@
       </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A518">
+      <c r="A518" s="3">
         <v>90993</v>
       </c>
       <c r="B518">
@@ -21056,7 +21060,7 @@
       </c>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A519">
+      <c r="A519" s="3">
         <v>441054</v>
       </c>
       <c r="B519">
@@ -21091,7 +21095,7 @@
       </c>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A520">
+      <c r="A520" s="3">
         <v>4319</v>
       </c>
       <c r="B520">
@@ -21126,7 +21130,7 @@
       </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A521">
+      <c r="A521" s="3">
         <v>4015</v>
       </c>
       <c r="B521">
@@ -21161,7 +21165,7 @@
       </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A522">
+      <c r="A522" s="3">
         <v>50509</v>
       </c>
       <c r="B522">
@@ -21196,7 +21200,7 @@
       </c>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A523">
+      <c r="A523" s="3">
         <v>9715</v>
       </c>
       <c r="B523">
@@ -21231,7 +21235,7 @@
       </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A524">
+      <c r="A524" s="3">
         <v>26082</v>
       </c>
       <c r="B524">
@@ -21266,7 +21270,7 @@
       </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A525">
+      <c r="A525" s="3">
         <v>10391</v>
       </c>
       <c r="B525">
@@ -21301,7 +21305,7 @@
       </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A526">
+      <c r="A526" s="3">
         <v>5798</v>
       </c>
       <c r="B526">
@@ -21336,7 +21340,7 @@
       </c>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A527">
+      <c r="A527" s="3">
         <v>100507127</v>
       </c>
       <c r="B527">
@@ -21371,7 +21375,7 @@
       </c>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A528">
+      <c r="A528" s="3">
         <v>51129</v>
       </c>
       <c r="B528">
@@ -21406,7 +21410,7 @@
       </c>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A529">
+      <c r="A529" s="3">
         <v>145501</v>
       </c>
       <c r="B529">
@@ -21441,7 +21445,7 @@
       </c>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A530">
+      <c r="A530" s="3">
         <v>4145</v>
       </c>
       <c r="B530">
@@ -21476,7 +21480,7 @@
       </c>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A531">
+      <c r="A531" s="3">
         <v>5507</v>
       </c>
       <c r="B531">
@@ -21511,7 +21515,7 @@
       </c>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A532">
+      <c r="A532" s="3">
         <v>100862728</v>
       </c>
       <c r="B532">
@@ -21546,7 +21550,7 @@
       </c>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A533">
+      <c r="A533" s="3">
         <v>8970</v>
       </c>
       <c r="B533">
@@ -21581,7 +21585,7 @@
       </c>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A534">
+      <c r="A534" s="3">
         <v>114299</v>
       </c>
       <c r="B534">
@@ -21616,7 +21620,7 @@
       </c>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A535">
+      <c r="A535" s="3">
         <v>55504</v>
       </c>
       <c r="B535">
@@ -21651,7 +21655,7 @@
       </c>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A536">
+      <c r="A536" s="3">
         <v>5865</v>
       </c>
       <c r="B536">
@@ -21686,7 +21690,7 @@
       </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A537">
+      <c r="A537" s="3">
         <v>64840</v>
       </c>
       <c r="B537">
@@ -21721,7 +21725,7 @@
       </c>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A538">
+      <c r="A538" s="3">
         <v>4330</v>
       </c>
       <c r="B538">
@@ -21756,7 +21760,7 @@
       </c>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A539">
+      <c r="A539" s="3">
         <v>6422</v>
       </c>
       <c r="B539">
@@ -21791,7 +21795,7 @@
       </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A540">
+      <c r="A540" s="3">
         <v>7046</v>
       </c>
       <c r="B540">
@@ -21826,7 +21830,7 @@
       </c>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A541">
+      <c r="A541" s="3">
         <v>4046</v>
       </c>
       <c r="B541">
@@ -21861,7 +21865,7 @@
       </c>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A542">
+      <c r="A542" s="3">
         <v>202020</v>
       </c>
       <c r="B542">
@@ -21896,7 +21900,7 @@
       </c>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A543">
+      <c r="A543" s="3">
         <v>51458</v>
       </c>
       <c r="B543">
@@ -21931,7 +21935,7 @@
       </c>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A544">
+      <c r="A544" s="3">
         <v>25907</v>
       </c>
       <c r="B544">
@@ -21966,7 +21970,7 @@
       </c>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A545">
+      <c r="A545" s="3">
         <v>22795</v>
       </c>
       <c r="B545">
@@ -22001,7 +22005,7 @@
       </c>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A546">
+      <c r="A546" s="3">
         <v>8091</v>
       </c>
       <c r="B546">
@@ -22036,7 +22040,7 @@
       </c>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A547">
+      <c r="A547" s="3">
         <v>57574</v>
       </c>
       <c r="B547">
@@ -22071,7 +22075,7 @@
       </c>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A548">
+      <c r="A548" s="3">
         <v>8534</v>
       </c>
       <c r="B548">
@@ -22106,7 +22110,7 @@
       </c>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A549">
+      <c r="A549" s="3">
         <v>7422</v>
       </c>
       <c r="B549">
@@ -22141,7 +22145,7 @@
       </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A550">
+      <c r="A550" s="3">
         <v>5787</v>
       </c>
       <c r="B550">
@@ -22176,7 +22180,7 @@
       </c>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A551">
+      <c r="A551" s="3">
         <v>6098</v>
       </c>
       <c r="B551">
@@ -22211,7 +22215,7 @@
       </c>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A552">
+      <c r="A552" s="3">
         <v>254439</v>
       </c>
       <c r="B552">
@@ -22246,7 +22250,7 @@
       </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A553">
+      <c r="A553" s="3">
         <v>123264</v>
       </c>
       <c r="B553">
@@ -22281,7 +22285,7 @@
       </c>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A554">
+      <c r="A554" s="3">
         <v>84620</v>
       </c>
       <c r="B554">
@@ -22316,7 +22320,7 @@
       </c>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A555">
+      <c r="A555" s="3">
         <v>79953</v>
       </c>
       <c r="B555">
@@ -22351,7 +22355,7 @@
       </c>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A556">
+      <c r="A556" s="3">
         <v>4052</v>
       </c>
       <c r="B556">
@@ -22386,7 +22390,7 @@
       </c>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A557">
+      <c r="A557" s="3">
         <v>168667</v>
       </c>
       <c r="B557">
@@ -22421,7 +22425,7 @@
       </c>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A558">
+      <c r="A558" s="3">
         <v>9244</v>
       </c>
       <c r="B558">
@@ -22456,7 +22460,7 @@
       </c>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A559">
+      <c r="A559" s="3">
         <v>100506211</v>
       </c>
       <c r="B559">
@@ -22491,7 +22495,7 @@
       </c>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A560">
+      <c r="A560" s="3">
         <v>146850</v>
       </c>
       <c r="B560">
@@ -22526,7 +22530,7 @@
       </c>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A561">
+      <c r="A561" s="3">
         <v>201191</v>
       </c>
       <c r="B561">
@@ -22561,7 +22565,7 @@
       </c>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A562">
+      <c r="A562" s="3">
         <v>64093</v>
       </c>
       <c r="B562">
@@ -22596,7 +22600,7 @@
       </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A563">
+      <c r="A563" s="3">
         <v>55640</v>
       </c>
       <c r="B563">
@@ -22631,7 +22635,7 @@
       </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A564">
+      <c r="A564" s="3">
         <v>6591</v>
       </c>
       <c r="B564">
@@ -22666,7 +22670,7 @@
       </c>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A565">
+      <c r="A565" s="3">
         <v>3918</v>
       </c>
       <c r="B565">
@@ -22701,7 +22705,7 @@
       </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A566">
+      <c r="A566" s="3">
         <v>9066</v>
       </c>
       <c r="B566">
@@ -22736,7 +22740,7 @@
       </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A567">
+      <c r="A567" s="3">
         <v>1305</v>
       </c>
       <c r="B567">
@@ -22771,7 +22775,7 @@
       </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A568">
+      <c r="A568" s="3">
         <v>388</v>
       </c>
       <c r="B568">
@@ -22806,7 +22810,7 @@
       </c>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A569">
+      <c r="A569" s="3">
         <v>7436</v>
       </c>
       <c r="B569">
@@ -22841,7 +22845,7 @@
       </c>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A570">
+      <c r="A570" s="3">
         <v>134111</v>
       </c>
       <c r="B570">
@@ -22876,7 +22880,7 @@
       </c>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A571">
+      <c r="A571" s="3">
         <v>51655</v>
       </c>
       <c r="B571">
@@ -22911,7 +22915,7 @@
       </c>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A572">
+      <c r="A572" s="3">
         <v>43</v>
       </c>
       <c r="B572">
@@ -22946,7 +22950,7 @@
       </c>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A573">
+      <c r="A573" s="3">
         <v>64131</v>
       </c>
       <c r="B573">
@@ -22981,7 +22985,7 @@
       </c>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A574">
+      <c r="A574" s="3">
         <v>6932</v>
       </c>
       <c r="B574">
@@ -23016,7 +23020,7 @@
       </c>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A575">
+      <c r="A575" s="3">
         <v>5603</v>
       </c>
       <c r="B575">
@@ -23051,7 +23055,7 @@
       </c>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A576">
+      <c r="A576" s="3">
         <v>57538</v>
       </c>
       <c r="B576">
@@ -23086,7 +23090,7 @@
       </c>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A577">
+      <c r="A577" s="3">
         <v>400221</v>
       </c>
       <c r="B577">
@@ -23121,7 +23125,7 @@
       </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A578">
+      <c r="A578" s="3">
         <v>402415</v>
       </c>
       <c r="B578">
@@ -23156,7 +23160,7 @@
       </c>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A579">
+      <c r="A579" s="3">
         <v>55022</v>
       </c>
       <c r="B579">
@@ -23191,7 +23195,7 @@
       </c>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A580">
+      <c r="A580" s="3">
         <v>91683</v>
       </c>
       <c r="B580">
@@ -23226,7 +23230,7 @@
       </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A581">
+      <c r="A581" s="3">
         <v>90427</v>
       </c>
       <c r="B581">
@@ -23261,7 +23265,7 @@
       </c>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A582">
+      <c r="A582" s="3">
         <v>283208</v>
       </c>
       <c r="B582">
@@ -23296,7 +23300,7 @@
       </c>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A583">
+      <c r="A583" s="3">
         <v>3708</v>
       </c>
       <c r="B583">
@@ -23331,7 +23335,7 @@
       </c>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A584">
+      <c r="A584" s="3">
         <v>79827</v>
       </c>
       <c r="B584">
@@ -23366,7 +23370,7 @@
       </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A585">
+      <c r="A585" s="3">
         <v>54742</v>
       </c>
       <c r="B585">
@@ -23401,7 +23405,7 @@
       </c>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A586">
+      <c r="A586" s="3">
         <v>5033</v>
       </c>
       <c r="B586">
@@ -23436,7 +23440,7 @@
       </c>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A587">
+      <c r="A587" s="3">
         <v>78990</v>
       </c>
       <c r="B587">
@@ -23471,7 +23475,7 @@
       </c>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A588">
+      <c r="A588" s="3">
         <v>151295</v>
       </c>
       <c r="B588">
@@ -23506,7 +23510,7 @@
       </c>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A589">
+      <c r="A589" s="3">
         <v>3755</v>
       </c>
       <c r="B589">
@@ -23541,7 +23545,7 @@
       </c>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A590">
+      <c r="A590" s="3">
         <v>2152</v>
       </c>
       <c r="B590">
@@ -23576,7 +23580,7 @@
       </c>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A591">
+      <c r="A591" s="3">
         <v>2786</v>
       </c>
       <c r="B591">
@@ -23611,7 +23615,7 @@
       </c>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A592">
+      <c r="A592" s="3">
         <v>23046</v>
       </c>
       <c r="B592">
@@ -23646,7 +23650,7 @@
       </c>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A593">
+      <c r="A593" s="3">
         <v>4907</v>
       </c>
       <c r="B593">
@@ -23681,7 +23685,7 @@
       </c>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A594">
+      <c r="A594" s="3">
         <v>290</v>
       </c>
       <c r="B594">
@@ -23716,7 +23720,7 @@
       </c>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A595">
+      <c r="A595" s="3">
         <v>131583</v>
       </c>
       <c r="B595">
@@ -23751,7 +23755,7 @@
       </c>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A596">
+      <c r="A596" s="3">
         <v>3486</v>
       </c>
       <c r="B596">
@@ -23786,7 +23790,7 @@
       </c>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A597">
+      <c r="A597" s="3">
         <v>283551</v>
       </c>
       <c r="B597">
@@ -23821,7 +23825,7 @@
       </c>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A598">
+      <c r="A598" s="3">
         <v>26207</v>
       </c>
       <c r="B598">
@@ -23856,7 +23860,7 @@
       </c>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A599">
+      <c r="A599" s="3">
         <v>6641</v>
       </c>
       <c r="B599">
@@ -23891,7 +23895,7 @@
       </c>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A600">
+      <c r="A600" s="3">
         <v>55076</v>
       </c>
       <c r="B600">
@@ -23926,7 +23930,7 @@
       </c>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A601">
+      <c r="A601" s="3">
         <v>3236</v>
       </c>
       <c r="B601">
@@ -23961,7 +23965,7 @@
       </c>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A602">
+      <c r="A602" s="3">
         <v>401097</v>
       </c>
       <c r="B602">
@@ -23996,7 +24000,7 @@
       </c>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A603">
+      <c r="A603" s="3">
         <v>3237</v>
       </c>
       <c r="B603">
@@ -24031,7 +24035,7 @@
       </c>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A604">
+      <c r="A604" s="3">
         <v>84206</v>
       </c>
       <c r="B604">
@@ -24066,7 +24070,7 @@
       </c>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A605">
+      <c r="A605" s="3">
         <v>815</v>
       </c>
       <c r="B605">
@@ -24101,7 +24105,7 @@
       </c>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A606">
+      <c r="A606" s="3">
         <v>2026</v>
       </c>
       <c r="B606">
@@ -24136,7 +24140,7 @@
       </c>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A607">
+      <c r="A607" s="3">
         <v>55584</v>
       </c>
       <c r="B607">
@@ -24171,7 +24175,7 @@
       </c>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A608">
+      <c r="A608" s="3">
         <v>2558</v>
       </c>
       <c r="B608">
@@ -24206,7 +24210,7 @@
       </c>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A609">
+      <c r="A609" s="3">
         <v>338761</v>
       </c>
       <c r="B609">
@@ -24241,7 +24245,7 @@
       </c>
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A610">
+      <c r="A610" s="3">
         <v>57537</v>
       </c>
       <c r="B610">
@@ -24276,7 +24280,7 @@
       </c>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A611">
+      <c r="A611" s="3">
         <v>618</v>
       </c>
       <c r="B611">
@@ -24311,7 +24315,7 @@
       </c>
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A612">
+      <c r="A612" s="3">
         <v>7031</v>
       </c>
       <c r="B612">
@@ -24346,7 +24350,7 @@
       </c>
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A613">
+      <c r="A613" s="3">
         <v>100507257</v>
       </c>
       <c r="B613">
@@ -24381,7 +24385,7 @@
       </c>
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A614">
+      <c r="A614" s="3">
         <v>100287314</v>
       </c>
       <c r="B614">
@@ -24416,7 +24420,7 @@
       </c>
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A615">
+      <c r="A615" s="3">
         <v>118611</v>
       </c>
       <c r="B615">
@@ -24451,7 +24455,7 @@
       </c>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A616">
+      <c r="A616" s="3">
         <v>100506334</v>
       </c>
       <c r="B616">
@@ -24486,7 +24490,7 @@
       </c>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A617">
+      <c r="A617" s="3">
         <v>8728</v>
       </c>
       <c r="B617">
@@ -24521,7 +24525,7 @@
       </c>
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A618">
+      <c r="A618" s="3">
         <v>6876</v>
       </c>
       <c r="B618">
@@ -24556,7 +24560,7 @@
       </c>
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A619">
+      <c r="A619" s="3">
         <v>2752</v>
       </c>
       <c r="B619">
@@ -24591,7 +24595,7 @@
       </c>
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A620">
+      <c r="A620" s="3">
         <v>147372</v>
       </c>
       <c r="B620">
@@ -24626,7 +24630,7 @@
       </c>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A621">
+      <c r="A621" s="3">
         <v>25789</v>
       </c>
       <c r="B621">
@@ -24661,7 +24665,7 @@
       </c>
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A622">
+      <c r="A622" s="3">
         <v>1289</v>
       </c>
       <c r="B622">
@@ -24696,7 +24700,7 @@
       </c>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A623">
+      <c r="A623" s="3">
         <v>3690</v>
       </c>
       <c r="B623">
@@ -24731,7 +24735,7 @@
       </c>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A624">
+      <c r="A624" s="3">
         <v>8614</v>
       </c>
       <c r="B624">
@@ -24766,7 +24770,7 @@
       </c>
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A625">
+      <c r="A625" s="3">
         <v>158880</v>
       </c>
       <c r="B625">
@@ -24801,7 +24805,7 @@
       </c>
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A626">
+      <c r="A626" s="3">
         <v>92737</v>
       </c>
       <c r="B626">
@@ -24836,7 +24840,7 @@
       </c>
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A627">
+      <c r="A627" s="3">
         <v>6525</v>
       </c>
       <c r="B627">
@@ -24871,7 +24875,7 @@
       </c>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A628">
+      <c r="A628" s="3">
         <v>586</v>
       </c>
       <c r="B628">
@@ -24906,7 +24910,7 @@
       </c>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A629">
+      <c r="A629" s="3">
         <v>554202</v>
       </c>
       <c r="B629">
@@ -24941,7 +24945,7 @@
       </c>
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A630">
+      <c r="A630" s="3">
         <v>1002</v>
       </c>
       <c r="B630">
@@ -24976,7 +24980,7 @@
       </c>
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A631">
+      <c r="A631" s="3">
         <v>115330</v>
       </c>
       <c r="B631">
@@ -25011,7 +25015,7 @@
       </c>
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A632">
+      <c r="A632" s="3">
         <v>8671</v>
       </c>
       <c r="B632">
@@ -25046,7 +25050,7 @@
       </c>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A633">
+      <c r="A633" s="3">
         <v>8372</v>
       </c>
       <c r="B633">
@@ -25081,7 +25085,7 @@
       </c>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A634">
+      <c r="A634" s="3">
         <v>230</v>
       </c>
       <c r="B634">
@@ -25116,7 +25120,7 @@
       </c>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A635">
+      <c r="A635" s="3">
         <v>8460</v>
       </c>
       <c r="B635">
@@ -25151,7 +25155,7 @@
       </c>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A636">
+      <c r="A636" s="3">
         <v>5352</v>
       </c>
       <c r="B636">
@@ -25186,7 +25190,7 @@
       </c>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A637">
+      <c r="A637" s="3">
         <v>57559</v>
       </c>
       <c r="B637">
@@ -25221,7 +25225,7 @@
       </c>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A638">
+      <c r="A638" s="3">
         <v>4066</v>
       </c>
       <c r="B638">
@@ -25256,7 +25260,7 @@
       </c>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A639">
+      <c r="A639" s="3">
         <v>358</v>
       </c>
       <c r="B639">
@@ -25291,7 +25295,7 @@
       </c>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A640">
+      <c r="A640" s="3">
         <v>8718</v>
       </c>
       <c r="B640">
@@ -25326,7 +25330,7 @@
       </c>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A641">
+      <c r="A641" s="3">
         <v>93649</v>
       </c>
       <c r="B641">
@@ -25361,7 +25365,7 @@
       </c>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A642">
+      <c r="A642" s="3">
         <v>147744</v>
       </c>
       <c r="B642">
@@ -25396,7 +25400,7 @@
       </c>
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A643">
+      <c r="A643" s="3">
         <v>4035</v>
       </c>
       <c r="B643">
@@ -25431,7 +25435,7 @@
       </c>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A644">
+      <c r="A644" s="3">
         <v>7837</v>
       </c>
       <c r="B644">
@@ -25466,7 +25470,7 @@
       </c>
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A645">
+      <c r="A645" s="3">
         <v>9123</v>
       </c>
       <c r="B645">
@@ -25501,7 +25505,7 @@
       </c>
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A646">
+      <c r="A646" s="3">
         <v>55384</v>
       </c>
       <c r="B646">
@@ -25536,7 +25540,7 @@
       </c>
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A647">
+      <c r="A647" s="3">
         <v>57596</v>
       </c>
       <c r="B647">
@@ -25571,7 +25575,7 @@
       </c>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A648">
+      <c r="A648" s="3">
         <v>7057</v>
       </c>
       <c r="B648">
@@ -25606,7 +25610,7 @@
       </c>
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A649">
+      <c r="A649" s="3">
         <v>115908</v>
       </c>
       <c r="B649">
@@ -25641,7 +25645,7 @@
       </c>
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A650">
+      <c r="A650" s="3">
         <v>7130</v>
       </c>
       <c r="B650">
@@ -25676,7 +25680,7 @@
       </c>
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A651">
+      <c r="A651" s="3">
         <v>1812</v>
       </c>
       <c r="B651">
@@ -25711,7 +25715,7 @@
       </c>
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A652">
+      <c r="A652" s="3">
         <v>57476</v>
       </c>
       <c r="B652">
@@ -25746,7 +25750,7 @@
       </c>
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A653">
+      <c r="A653" s="3">
         <v>56033</v>
       </c>
       <c r="B653">
@@ -25781,7 +25785,7 @@
       </c>
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A654">
+      <c r="A654" s="3">
         <v>727936</v>
       </c>
       <c r="B654">
@@ -25816,7 +25820,7 @@
       </c>
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A655">
+      <c r="A655" s="3">
         <v>6769</v>
       </c>
       <c r="B655">
@@ -25851,7 +25855,7 @@
       </c>
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A656">
+      <c r="A656" s="3">
         <v>79778</v>
       </c>
       <c r="B656">
@@ -25886,7 +25890,7 @@
       </c>
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A657">
+      <c r="A657" s="3">
         <v>7975</v>
       </c>
       <c r="B657">
@@ -25921,7 +25925,7 @@
       </c>
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A658">
+      <c r="A658" s="3">
         <v>148979</v>
       </c>
       <c r="B658">
@@ -25956,7 +25960,7 @@
       </c>
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A659">
+      <c r="A659" s="3">
         <v>56937</v>
       </c>
       <c r="B659">
@@ -25991,7 +25995,7 @@
       </c>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A660">
+      <c r="A660" s="3">
         <v>10098</v>
       </c>
       <c r="B660">
@@ -26026,7 +26030,7 @@
       </c>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A661">
+      <c r="A661" s="3">
         <v>3300</v>
       </c>
       <c r="B661">
@@ -26061,7 +26065,7 @@
       </c>
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A662">
+      <c r="A662" s="3">
         <v>170689</v>
       </c>
       <c r="B662">
@@ -26096,7 +26100,7 @@
       </c>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A663">
+      <c r="A663" s="3">
         <v>58480</v>
       </c>
       <c r="B663">
@@ -26131,7 +26135,7 @@
       </c>
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A664">
+      <c r="A664" s="3">
         <v>80303</v>
       </c>
       <c r="B664">
@@ -26166,7 +26170,7 @@
       </c>
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A665">
+      <c r="A665" s="3">
         <v>57449</v>
       </c>
       <c r="B665">
@@ -26201,7 +26205,7 @@
       </c>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A666">
+      <c r="A666" s="3">
         <v>145773</v>
       </c>
       <c r="B666">
@@ -26236,7 +26240,7 @@
       </c>
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A667">
+      <c r="A667" s="3">
         <v>3955</v>
       </c>
       <c r="B667">
@@ -26271,7 +26275,7 @@
       </c>
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A668">
+      <c r="A668" s="3">
         <v>665</v>
       </c>
       <c r="B668">
@@ -26306,7 +26310,7 @@
       </c>
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A669">
+      <c r="A669" s="3">
         <v>22979</v>
       </c>
       <c r="B669">
@@ -26341,7 +26345,7 @@
       </c>
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A670">
+      <c r="A670" s="3">
         <v>221481</v>
       </c>
       <c r="B670">
@@ -26376,7 +26380,7 @@
       </c>
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A671">
+      <c r="A671" s="3">
         <v>51177</v>
       </c>
       <c r="B671">
@@ -26411,7 +26415,7 @@
       </c>
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A672">
+      <c r="A672" s="3">
         <v>340075</v>
       </c>
       <c r="B672">
@@ -26446,7 +26450,7 @@
       </c>
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A673">
+      <c r="A673" s="3">
         <v>388121</v>
       </c>
       <c r="B673">
@@ -26481,7 +26485,7 @@
       </c>
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A674">
+      <c r="A674" s="3">
         <v>25758</v>
       </c>
       <c r="B674">
